--- a/ArticleManage/main_working_folder/output_folders/Data 22 Microstructures of PAN-ACF modified/Data22_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 22 Microstructures of PAN-ACF modified/Data22_all_graphs_excel.xlsx
@@ -5,12 +5,12 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 1 ACF1  0&amp;1&amp;0&amp;325 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 1 ACF2  0&amp;1&amp;0&amp;600 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 1 CVD1  0&amp;1&amp;0&amp;325 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 1 CVD2  0&amp;1&amp;0&amp;325 " sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 1 CVD21  0&amp;1&amp;0&amp;325 " sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 1 CVD3  0&amp;1&amp;0&amp;600 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 1_1 ACF1  0&amp;1&amp;0&amp;325 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1_1 CVD1  0&amp;1&amp;0&amp;325 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1_1 CVD2  0&amp;1&amp;0&amp;325 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 1_1 CVD21  0&amp;1&amp;0&amp;325 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 1_2 ACF2  0&amp;1&amp;0&amp;600 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 1_2 CVD3  0&amp;1&amp;0&amp;600 " sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -28,9 +28,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>ACF2</t>
-  </si>
-  <si>
     <t>CVD1</t>
   </si>
   <si>
@@ -38,6 +35,9 @@
   </si>
   <si>
     <t>CVD21</t>
+  </si>
+  <si>
+    <t>ACF2</t>
   </si>
   <si>
     <t>CVD3</t>
@@ -117,7 +117,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki ACF1 z wykresu 'Figure 1' </a:t>
+              <a:t>Izoterma adsorpcji probki ACF1 z wykresu 'Figure 1_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -176,12 +176,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 ACF1  0&amp;1&amp;0&amp;325 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_1 ACF1  0&amp;1&amp;0&amp;325 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 ACF1  0&amp;1&amp;0&amp;325 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_1 ACF1  0&amp;1&amp;0&amp;325 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -431,7 +431,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki ACF2 z wykresu 'Figure 1' </a:t>
+              <a:t>Izoterma adsorpcji probki CVD1 z wykresu 'Figure 1_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -490,12 +490,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 ACF2  0&amp;1&amp;0&amp;600 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_1 CVD1  0&amp;1&amp;0&amp;325 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 ACF2  0&amp;1&amp;0&amp;600 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_1 CVD1  0&amp;1&amp;0&amp;325 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -579,7 +579,7 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="600"/>
+          <c:max val="325"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -745,7 +745,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki CVD1 z wykresu 'Figure 1' </a:t>
+              <a:t>Izoterma adsorpcji probki CVD2 z wykresu 'Figure 1_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -804,12 +804,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 CVD1  0&amp;1&amp;0&amp;325 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_1 CVD2  0&amp;1&amp;0&amp;325 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 CVD1  0&amp;1&amp;0&amp;325 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_1 CVD2  0&amp;1&amp;0&amp;325 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1059,7 +1059,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki CVD2 z wykresu 'Figure 1' </a:t>
+              <a:t>Izoterma adsorpcji probki CVD21 z wykresu 'Figure 1_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1118,12 +1118,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 CVD2  0&amp;1&amp;0&amp;325 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_1 CVD21  0&amp;1&amp;0&amp;325 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 CVD2  0&amp;1&amp;0&amp;325 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_1 CVD21  0&amp;1&amp;0&amp;325 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1373,7 +1373,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki CVD21 z wykresu 'Figure 1' </a:t>
+              <a:t>Izoterma adsorpcji probki ACF2 z wykresu 'Figure 1_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1432,12 +1432,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 CVD21  0&amp;1&amp;0&amp;325 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_2 ACF2  0&amp;1&amp;0&amp;600 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 CVD21  0&amp;1&amp;0&amp;325 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_2 ACF2  0&amp;1&amp;0&amp;600 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1521,7 +1521,7 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="325"/>
+          <c:max val="600"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1687,7 +1687,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki CVD3 z wykresu 'Figure 1' </a:t>
+              <a:t>Izoterma adsorpcji probki CVD3 z wykresu 'Figure 1_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1746,12 +1746,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 CVD3  0&amp;1&amp;0&amp;600 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_2 CVD3  0&amp;1&amp;0&amp;600 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 CVD3  0&amp;1&amp;0&amp;600 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_2 CVD3  0&amp;1&amp;0&amp;600 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -6197,7 +6197,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6218,277 +6218,229 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9901</v>
+        <v>0.9903</v>
       </c>
       <c r="B3" s="0">
-        <v>578.2615</v>
+        <v>172.904</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9597</v>
+        <v>0.9743</v>
       </c>
       <c r="B4" s="0">
-        <v>577.3787</v>
+        <v>173.122</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9438</v>
+        <v>0.9638</v>
       </c>
       <c r="B5" s="0">
-        <v>576.5022</v>
+        <v>173.1242</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.8801</v>
+        <v>0.9474</v>
       </c>
       <c r="B6" s="0">
-        <v>574.3006</v>
+        <v>172.9132</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.7902</v>
+        <v>0.9351</v>
       </c>
       <c r="B7" s="0">
-        <v>571.218</v>
+        <v>172.4868</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.668</v>
+        <v>0.9209</v>
       </c>
       <c r="B8" s="0">
-        <v>566.8171</v>
+        <v>172.4899</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.58</v>
+        <v>0.9013</v>
       </c>
       <c r="B9" s="0">
-        <v>563.3005</v>
+        <v>172.4941</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.4798</v>
+        <v>0.8853</v>
       </c>
       <c r="B10" s="0">
-        <v>559.3439</v>
+        <v>172.4975</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.3758</v>
+        <v>0.8675</v>
       </c>
       <c r="B11" s="0">
-        <v>553.2118</v>
+        <v>172.0723</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2091</v>
+        <v>0.8465</v>
       </c>
       <c r="B12" s="0">
-        <v>537.0523</v>
+        <v>171.8623</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.1192</v>
+        <v>0.8309</v>
       </c>
       <c r="B13" s="0">
-        <v>514.4045</v>
+        <v>171.6511</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0798</v>
+        <v>0.7903</v>
       </c>
       <c r="B14" s="0">
-        <v>494.3874</v>
+        <v>171.2308</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0639</v>
+        <v>0.7707</v>
       </c>
       <c r="B15" s="0">
-        <v>483.9457</v>
+        <v>170.8059</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0582</v>
+        <v>0.7309</v>
       </c>
       <c r="B16" s="0">
-        <v>478.2911</v>
+        <v>170.8144</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.0404</v>
+        <v>0.672</v>
       </c>
       <c r="B17" s="0">
-        <v>459.1529</v>
+        <v>170.398</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.0207</v>
+        <v>0.6017</v>
       </c>
       <c r="B18" s="0">
-        <v>426.9704</v>
+        <v>169.7696</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.0112</v>
+        <v>0.5309</v>
       </c>
       <c r="B19" s="0">
-        <v>400.4446</v>
+        <v>168.7121</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.0079</v>
+        <v>0.4409</v>
       </c>
       <c r="B20" s="0">
-        <v>389.5736</v>
+        <v>167.6588</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.0041</v>
+        <v>0.3195</v>
       </c>
       <c r="B21" s="0">
-        <v>370.8763</v>
+        <v>165.7542</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.0018</v>
+        <v>0.1797</v>
       </c>
       <c r="B22" s="0">
-        <v>350.0056</v>
+        <v>162.7809</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.0008</v>
+        <v>0.1198</v>
       </c>
       <c r="B23" s="0">
-        <v>327.8313</v>
+        <v>160.6485</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.0003</v>
+        <v>0.0943</v>
       </c>
       <c r="B24" s="0">
-        <v>314.7876</v>
+        <v>159.5814</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.0003</v>
+        <v>0.0741</v>
       </c>
       <c r="B25" s="0">
-        <v>292.1787</v>
+        <v>157.655</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0004</v>
+        <v>0.0353</v>
       </c>
       <c r="B26" s="0">
-        <v>243.483</v>
+        <v>152.5148</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0004</v>
+        <v>0.0133</v>
       </c>
       <c r="B27" s="0">
-        <v>219.1351</v>
+        <v>145.0113</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0005</v>
+        <v>0.0073</v>
       </c>
       <c r="B28" s="0">
-        <v>194.7873</v>
+        <v>140.2931</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0005</v>
+        <v>0.0022</v>
       </c>
       <c r="B29" s="0">
-        <v>171.309</v>
+        <v>135.7893</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.0002</v>
+        <v>0.0003</v>
       </c>
       <c r="B30" s="0">
-        <v>122.6135</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>-0.0002</v>
-      </c>
-      <c r="B31" s="0">
-        <v>97.3961</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>-0.0003</v>
-      </c>
-      <c r="B32" s="0">
-        <v>73.483</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.0011</v>
-      </c>
-      <c r="B33" s="0">
-        <v>59.5706</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.0001</v>
-      </c>
-      <c r="B34" s="0">
-        <v>43.4832</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>-0.0009</v>
-      </c>
-      <c r="B35" s="0">
-        <v>26.0915</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>-0.0009</v>
-      </c>
-      <c r="B36" s="0">
-        <v>10.0045</v>
-      </c>
-    </row>
-    <row r="37"/>
+        <v>130.2121</v>
+      </c>
+    </row>
+    <row r="31"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -6518,226 +6470,226 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9903</v>
+        <v>0.9909</v>
       </c>
       <c r="B3" s="0">
-        <v>172.904</v>
+        <v>146.3032</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9743</v>
+        <v>0.9603</v>
       </c>
       <c r="B4" s="0">
-        <v>173.122</v>
+        <v>145.8808</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9638</v>
+        <v>0.9302</v>
       </c>
       <c r="B5" s="0">
-        <v>173.1242</v>
+        <v>145.6727</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.9474</v>
+        <v>0.9105</v>
       </c>
       <c r="B6" s="0">
-        <v>172.9132</v>
+        <v>145.4624</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.9351</v>
+        <v>0.8909</v>
       </c>
       <c r="B7" s="0">
-        <v>172.4868</v>
+        <v>145.2521</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.9209</v>
+        <v>0.8703</v>
       </c>
       <c r="B8" s="0">
-        <v>172.4899</v>
+        <v>145.2565</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.9013</v>
+        <v>0.8607</v>
       </c>
       <c r="B9" s="0">
-        <v>172.4941</v>
+        <v>145.2585</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.8853</v>
+        <v>0.8411</v>
       </c>
       <c r="B10" s="0">
-        <v>172.4975</v>
+        <v>144.6192</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.8675</v>
+        <v>0.8155</v>
       </c>
       <c r="B11" s="0">
-        <v>172.0723</v>
+        <v>144.8392</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.8465</v>
+        <v>0.8005</v>
       </c>
       <c r="B12" s="0">
-        <v>171.8623</v>
+        <v>144.6279</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.8309</v>
+        <v>0.774</v>
       </c>
       <c r="B13" s="0">
-        <v>171.6511</v>
+        <v>144.6336</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.7903</v>
+        <v>0.7543</v>
       </c>
       <c r="B14" s="0">
-        <v>171.2308</v>
+        <v>143.9942</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.7707</v>
+        <v>0.731</v>
       </c>
       <c r="B15" s="0">
-        <v>170.8059</v>
+        <v>143.5702</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.7309</v>
+        <v>0.7009</v>
       </c>
       <c r="B16" s="0">
-        <v>170.8144</v>
+        <v>143.7912</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.672</v>
+        <v>0.6511</v>
       </c>
       <c r="B17" s="0">
-        <v>170.398</v>
+        <v>143.1583</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.6017</v>
+        <v>0.5972</v>
       </c>
       <c r="B18" s="0">
-        <v>169.7696</v>
+        <v>142.7408</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.5309</v>
+        <v>0.5406</v>
       </c>
       <c r="B19" s="0">
-        <v>168.7121</v>
+        <v>141.8949</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.4409</v>
+        <v>0.457</v>
       </c>
       <c r="B20" s="0">
-        <v>167.6588</v>
+        <v>141.0547</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.3195</v>
+        <v>0.3356</v>
       </c>
       <c r="B21" s="0">
-        <v>165.7542</v>
+        <v>139.7937</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.1797</v>
+        <v>0.1835</v>
       </c>
       <c r="B22" s="0">
-        <v>162.7809</v>
+        <v>137.252</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.1198</v>
+        <v>0.1245</v>
       </c>
       <c r="B23" s="0">
-        <v>160.6485</v>
+        <v>135.5485</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.0943</v>
+        <v>0.0962</v>
       </c>
       <c r="B24" s="0">
-        <v>159.5814</v>
+        <v>134.0529</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.0741</v>
+        <v>0.067</v>
       </c>
       <c r="B25" s="0">
-        <v>157.655</v>
+        <v>132.1285</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.0353</v>
+        <v>0.0313</v>
       </c>
       <c r="B26" s="0">
-        <v>152.5148</v>
+        <v>127.8457</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0133</v>
+        <v>0.0194</v>
       </c>
       <c r="B27" s="0">
-        <v>145.0113</v>
+        <v>124.6305</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.0073</v>
+        <v>0.0088</v>
       </c>
       <c r="B28" s="0">
-        <v>140.2931</v>
+        <v>120.5568</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0022</v>
+        <v>0.0047</v>
       </c>
       <c r="B29" s="0">
-        <v>135.7893</v>
+        <v>115.8382</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.0003</v>
+        <v>0.0014</v>
       </c>
       <c r="B30" s="0">
-        <v>130.2121</v>
+        <v>108.3307</v>
       </c>
     </row>
     <row r="31"/>
@@ -6749,7 +6701,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6770,229 +6722,213 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9909</v>
+        <v>0.991</v>
       </c>
       <c r="B3" s="0">
-        <v>146.3032</v>
+        <v>189.2075</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9603</v>
+        <v>0.9709</v>
       </c>
       <c r="B4" s="0">
-        <v>145.8808</v>
+        <v>189.2118</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9302</v>
+        <v>0.9508</v>
       </c>
       <c r="B5" s="0">
-        <v>145.6727</v>
+        <v>189.2161</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.9105</v>
+        <v>0.9348</v>
       </c>
       <c r="B6" s="0">
-        <v>145.4624</v>
+        <v>189.2196</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.8909</v>
+        <v>0.9207</v>
       </c>
       <c r="B7" s="0">
-        <v>145.2521</v>
+        <v>189.0081</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.8703</v>
+        <v>0.8969</v>
       </c>
       <c r="B8" s="0">
-        <v>145.2565</v>
+        <v>188.7986</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.8607</v>
+        <v>0.8809</v>
       </c>
       <c r="B9" s="0">
-        <v>145.2585</v>
+        <v>188.5875</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.8411</v>
+        <v>0.8613</v>
       </c>
       <c r="B10" s="0">
-        <v>144.6192</v>
+        <v>188.1627</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.8155</v>
+        <v>0.8412</v>
       </c>
       <c r="B11" s="0">
-        <v>144.8392</v>
+        <v>187.9525</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.8005</v>
+        <v>0.801</v>
       </c>
       <c r="B12" s="0">
-        <v>144.6279</v>
+        <v>187.5321</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.774</v>
+        <v>0.7814</v>
       </c>
       <c r="B13" s="0">
-        <v>144.6336</v>
+        <v>187.1073</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.7543</v>
+        <v>0.7517</v>
       </c>
       <c r="B14" s="0">
-        <v>143.9942</v>
+        <v>187.1136</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.731</v>
+        <v>0.7216</v>
       </c>
       <c r="B15" s="0">
-        <v>143.5702</v>
+        <v>187.7637</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.7009</v>
+        <v>0.712</v>
       </c>
       <c r="B16" s="0">
-        <v>143.7912</v>
+        <v>186.6931</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.6511</v>
+        <v>0.6713</v>
       </c>
       <c r="B17" s="0">
-        <v>143.1583</v>
+        <v>186.0583</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.5972</v>
+        <v>0.6014</v>
       </c>
       <c r="B18" s="0">
-        <v>142.7408</v>
+        <v>185.6442</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.5406</v>
+        <v>0.5311</v>
       </c>
       <c r="B19" s="0">
-        <v>141.8949</v>
+        <v>184.5867</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.457</v>
+        <v>0.4452</v>
       </c>
       <c r="B20" s="0">
-        <v>141.0547</v>
+        <v>183.5325</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.3356</v>
+        <v>0.3215</v>
       </c>
       <c r="B21" s="0">
-        <v>139.7937</v>
+        <v>181.8429</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.1835</v>
+        <v>0.1753</v>
       </c>
       <c r="B22" s="0">
-        <v>137.252</v>
+        <v>178.2274</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.1245</v>
+        <v>0.12</v>
       </c>
       <c r="B23" s="0">
-        <v>135.5485</v>
+        <v>176.5231</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.0962</v>
+        <v>0.094</v>
       </c>
       <c r="B24" s="0">
-        <v>134.0529</v>
+        <v>175.027</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.067</v>
+        <v>0.0698</v>
       </c>
       <c r="B25" s="0">
-        <v>132.1285</v>
+        <v>172.2434</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.0313</v>
+        <v>0.0368</v>
       </c>
       <c r="B26" s="0">
-        <v>127.8457</v>
+        <v>167.102</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0194</v>
+        <v>0.0139</v>
       </c>
       <c r="B27" s="0">
-        <v>124.6305</v>
+        <v>158.3115</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.0088</v>
+        <v>0.0083</v>
       </c>
       <c r="B28" s="0">
-        <v>120.5568</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.0047</v>
-      </c>
-      <c r="B29" s="0">
-        <v>115.8382</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.0014</v>
-      </c>
-      <c r="B30" s="0">
-        <v>108.3307</v>
-      </c>
-    </row>
-    <row r="31"/>
+        <v>152.5206</v>
+      </c>
+    </row>
+    <row r="29"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -7001,7 +6937,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7022,213 +6958,277 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.991</v>
+        <v>0.9901</v>
       </c>
       <c r="B3" s="0">
-        <v>189.2075</v>
+        <v>578.2615</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9709</v>
+        <v>0.9597</v>
       </c>
       <c r="B4" s="0">
-        <v>189.2118</v>
+        <v>577.3787</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9508</v>
+        <v>0.9438</v>
       </c>
       <c r="B5" s="0">
-        <v>189.2161</v>
+        <v>576.5022</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.9348</v>
+        <v>0.8801</v>
       </c>
       <c r="B6" s="0">
-        <v>189.2196</v>
+        <v>574.3006</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.9207</v>
+        <v>0.7902</v>
       </c>
       <c r="B7" s="0">
-        <v>189.0081</v>
+        <v>571.218</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.8969</v>
+        <v>0.668</v>
       </c>
       <c r="B8" s="0">
-        <v>188.7986</v>
+        <v>566.8171</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.8809</v>
+        <v>0.58</v>
       </c>
       <c r="B9" s="0">
-        <v>188.5875</v>
+        <v>563.3005</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.8613</v>
+        <v>0.4798</v>
       </c>
       <c r="B10" s="0">
-        <v>188.1627</v>
+        <v>559.3439</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.8412</v>
+        <v>0.3758</v>
       </c>
       <c r="B11" s="0">
-        <v>187.9525</v>
+        <v>553.2118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.801</v>
+        <v>0.2091</v>
       </c>
       <c r="B12" s="0">
-        <v>187.5321</v>
+        <v>537.0523</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.7814</v>
+        <v>0.1192</v>
       </c>
       <c r="B13" s="0">
-        <v>187.1073</v>
+        <v>514.4045</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.7517</v>
+        <v>0.0798</v>
       </c>
       <c r="B14" s="0">
-        <v>187.1136</v>
+        <v>494.3874</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.7216</v>
+        <v>0.0639</v>
       </c>
       <c r="B15" s="0">
-        <v>187.7637</v>
+        <v>483.9457</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.712</v>
+        <v>0.0582</v>
       </c>
       <c r="B16" s="0">
-        <v>186.6931</v>
+        <v>478.2911</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.6713</v>
+        <v>0.0404</v>
       </c>
       <c r="B17" s="0">
-        <v>186.0583</v>
+        <v>459.1529</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.6014</v>
+        <v>0.0207</v>
       </c>
       <c r="B18" s="0">
-        <v>185.6442</v>
+        <v>426.9704</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.5311</v>
+        <v>0.0112</v>
       </c>
       <c r="B19" s="0">
-        <v>184.5867</v>
+        <v>400.4446</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.4452</v>
+        <v>0.0079</v>
       </c>
       <c r="B20" s="0">
-        <v>183.5325</v>
+        <v>389.5736</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.3215</v>
+        <v>0.0041</v>
       </c>
       <c r="B21" s="0">
-        <v>181.8429</v>
+        <v>370.8763</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.1753</v>
+        <v>0.0018</v>
       </c>
       <c r="B22" s="0">
-        <v>178.2274</v>
+        <v>350.0056</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.12</v>
+        <v>0.0008</v>
       </c>
       <c r="B23" s="0">
-        <v>176.5231</v>
+        <v>327.8313</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.094</v>
+        <v>0.0003</v>
       </c>
       <c r="B24" s="0">
-        <v>175.027</v>
+        <v>314.7876</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.0698</v>
+        <v>-0.0003</v>
       </c>
       <c r="B25" s="0">
-        <v>172.2434</v>
+        <v>292.1787</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.0368</v>
+        <v>-0.0004</v>
       </c>
       <c r="B26" s="0">
-        <v>167.102</v>
+        <v>243.483</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0139</v>
+        <v>-0.0004</v>
       </c>
       <c r="B27" s="0">
-        <v>158.3115</v>
+        <v>219.1351</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.0083</v>
+        <v>-0.0005</v>
       </c>
       <c r="B28" s="0">
-        <v>152.5206</v>
-      </c>
-    </row>
-    <row r="29"/>
+        <v>194.7873</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>-0.0005</v>
+      </c>
+      <c r="B29" s="0">
+        <v>171.309</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>-0.0002</v>
+      </c>
+      <c r="B30" s="0">
+        <v>122.6135</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>-0.0002</v>
+      </c>
+      <c r="B31" s="0">
+        <v>97.3961</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>-0.0003</v>
+      </c>
+      <c r="B32" s="0">
+        <v>73.483</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.0011</v>
+      </c>
+      <c r="B33" s="0">
+        <v>59.5706</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.0001</v>
+      </c>
+      <c r="B34" s="0">
+        <v>43.4832</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>-0.0009</v>
+      </c>
+      <c r="B35" s="0">
+        <v>26.0915</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>-0.0009</v>
+      </c>
+      <c r="B36" s="0">
+        <v>10.0045</v>
+      </c>
+    </row>
+    <row r="37"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
